--- a/docentes/Caballero Rosas María Teresa - Estadisticos 20211.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 20211.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="24">
   <si>
     <t>Mat</t>
   </si>
@@ -71,6 +71,24 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>PONCE</t>
+  </si>
+  <si>
+    <t>ROMAN</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>ALETHIA LUCIA</t>
+  </si>
+  <si>
+    <t>FABIOLA</t>
   </si>
 </sst>
 </file>
@@ -704,7 +722,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -737,6 +755,52 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920245</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Caballero Rosas María Teresa - Estadisticos 20211.xlsx
+++ b/docentes/Caballero Rosas María Teresa - Estadisticos 20211.xlsx
@@ -515,10 +515,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -527,7 +527,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
         <v>7.4</v>
@@ -606,10 +606,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3">
         <v>34</v>
@@ -697,10 +697,10 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -709,7 +709,7 @@
         <v>27</v>
       </c>
       <c r="G3">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H3">
         <v>7.4</v>
